--- a/document/Configuration/Configuration.xlsx
+++ b/document/Configuration/Configuration.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tello Tag Configuration" sheetId="1" r:id="rId1"/>
+    <sheet name="Version Control Configuration" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
   <si>
     <t>Trello Tag Configuration</t>
   </si>
@@ -196,6 +197,21 @@
   </si>
   <si>
     <t>Review Card Complete</t>
+  </si>
+  <si>
+    <t>Version Pattern</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Maintenance Project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deploy Project </t>
   </si>
 </sst>
 </file>
@@ -239,7 +255,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -333,11 +349,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -384,6 +415,27 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -666,7 +718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -1100,4 +1152,63 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68935A50-2479-48AD-B4FF-4F0F09EC5E00}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
+    <col min="2" max="5" width="14.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="24"/>
+      <c r="B3" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>